--- a/data/pca/factorExposure/factorExposure_2014-10-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.009270008033266228</v>
+        <v>-0.0147098618669425</v>
       </c>
       <c r="C2">
-        <v>-0.1075792729963886</v>
+        <v>0.08525460250335873</v>
       </c>
       <c r="D2">
-        <v>-0.08205975156122242</v>
+        <v>0.01835943153865417</v>
       </c>
       <c r="E2">
-        <v>-0.1302751038839041</v>
+        <v>0.129463393503943</v>
       </c>
       <c r="F2">
-        <v>0.2112190023670392</v>
+        <v>-0.08497732141488963</v>
       </c>
       <c r="G2">
-        <v>-0.02299913277475017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04834295054736581</v>
+      </c>
+      <c r="H2">
+        <v>0.05392391382699728</v>
+      </c>
+      <c r="I2">
+        <v>-0.07640132399122056</v>
+      </c>
+      <c r="J2">
+        <v>0.2063445722463405</v>
+      </c>
+      <c r="K2">
+        <v>0.08775632405310455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.03617088024621068</v>
+        <v>-0.02125572499173717</v>
       </c>
       <c r="C4">
-        <v>-0.1625665049884563</v>
+        <v>0.1545741750399285</v>
       </c>
       <c r="D4">
-        <v>-0.002120148593003303</v>
+        <v>0.05079118437876999</v>
       </c>
       <c r="E4">
-        <v>-0.07670759951561136</v>
+        <v>0.07118560038739066</v>
       </c>
       <c r="F4">
-        <v>-0.04450565465261078</v>
+        <v>0.02377766640612958</v>
       </c>
       <c r="G4">
-        <v>0.01532842988358452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01152939452392611</v>
+      </c>
+      <c r="H4">
+        <v>0.1176061061848301</v>
+      </c>
+      <c r="I4">
+        <v>0.008655550864604103</v>
+      </c>
+      <c r="J4">
+        <v>0.1466957493253425</v>
+      </c>
+      <c r="K4">
+        <v>-0.04778511123986434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02415293403235028</v>
+        <v>-0.03734654186239843</v>
       </c>
       <c r="C6">
-        <v>-0.07681625754865831</v>
+        <v>0.07369599846524587</v>
       </c>
       <c r="D6">
-        <v>-0.02946329575820917</v>
+        <v>0.02278472131235457</v>
       </c>
       <c r="E6">
-        <v>-0.1018668014085927</v>
+        <v>0.07953327028894781</v>
       </c>
       <c r="F6">
-        <v>0.0007522078935317293</v>
+        <v>-0.05434422152290367</v>
       </c>
       <c r="G6">
-        <v>-0.04994007057485269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.05992261613997767</v>
+      </c>
+      <c r="H6">
+        <v>0.04207776147323961</v>
+      </c>
+      <c r="I6">
+        <v>-0.06396906075521336</v>
+      </c>
+      <c r="J6">
+        <v>0.04151872806070656</v>
+      </c>
+      <c r="K6">
+        <v>0.05075592829533209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.008571091686824786</v>
+        <v>-0.01325823431316087</v>
       </c>
       <c r="C7">
-        <v>-0.0495843678432353</v>
+        <v>0.06550404892671521</v>
       </c>
       <c r="D7">
-        <v>-0.009765511190450101</v>
+        <v>0.01312201861831454</v>
       </c>
       <c r="E7">
-        <v>-0.07230675260623162</v>
+        <v>0.02575956027838011</v>
       </c>
       <c r="F7">
-        <v>-0.01274101170601945</v>
+        <v>0.01676454478496091</v>
       </c>
       <c r="G7">
-        <v>0.01251695001399728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.06457290337798115</v>
+      </c>
+      <c r="H7">
+        <v>0.09066311099077108</v>
+      </c>
+      <c r="I7">
+        <v>-0.01934460825791392</v>
+      </c>
+      <c r="J7">
+        <v>0.0451304369319715</v>
+      </c>
+      <c r="K7">
+        <v>-0.001040407781309001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.02010388741451918</v>
+        <v>0.009464739810385356</v>
       </c>
       <c r="C8">
-        <v>-0.0890664319034479</v>
+        <v>0.07737900262290005</v>
       </c>
       <c r="D8">
-        <v>-0.02997441417915208</v>
+        <v>0.03961077888285886</v>
       </c>
       <c r="E8">
-        <v>-0.1378667611781904</v>
+        <v>0.08490553205663555</v>
       </c>
       <c r="F8">
-        <v>0.03689091838515877</v>
+        <v>-0.009709067927699143</v>
       </c>
       <c r="G8">
-        <v>0.07694581262877477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03368662152085041</v>
+      </c>
+      <c r="H8">
+        <v>0.0425535972313888</v>
+      </c>
+      <c r="I8">
+        <v>-0.005835164739734993</v>
+      </c>
+      <c r="J8">
+        <v>0.0003974695026874735</v>
+      </c>
+      <c r="K8">
+        <v>-0.01669835282104626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01879904631959287</v>
+        <v>-0.01342147657919002</v>
       </c>
       <c r="C9">
-        <v>-0.1350716260675228</v>
+        <v>0.1186175464543851</v>
       </c>
       <c r="D9">
-        <v>0.00366407635399438</v>
+        <v>0.03388193968452134</v>
       </c>
       <c r="E9">
-        <v>-0.05768009652005225</v>
+        <v>0.03241165393924245</v>
       </c>
       <c r="F9">
-        <v>-0.0249943222848698</v>
+        <v>-0.0005491219081197162</v>
       </c>
       <c r="G9">
-        <v>-0.01847237830654081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.001100768096760538</v>
+      </c>
+      <c r="H9">
+        <v>0.09933888684227035</v>
+      </c>
+      <c r="I9">
+        <v>-0.02543959199002782</v>
+      </c>
+      <c r="J9">
+        <v>0.06121544980150709</v>
+      </c>
+      <c r="K9">
+        <v>-0.04900425770951647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2633392347817671</v>
+        <v>-0.2479785582654531</v>
       </c>
       <c r="C10">
-        <v>0.09899480128512336</v>
+        <v>-0.0924800159956443</v>
       </c>
       <c r="D10">
-        <v>-0.03306333810826786</v>
+        <v>-6.073332762448024e-05</v>
       </c>
       <c r="E10">
-        <v>-0.001698230537398235</v>
+        <v>0.01517644914055306</v>
       </c>
       <c r="F10">
-        <v>-0.02389720411268363</v>
+        <v>-0.01269059401552781</v>
       </c>
       <c r="G10">
-        <v>0.06402668253514313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01318669320607332</v>
+      </c>
+      <c r="H10">
+        <v>0.0522693888652192</v>
+      </c>
+      <c r="I10">
+        <v>0.158509077506639</v>
+      </c>
+      <c r="J10">
+        <v>-0.08883525681875154</v>
+      </c>
+      <c r="K10">
+        <v>-0.02989328802296205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01158497415984947</v>
+        <v>-0.01547001607434903</v>
       </c>
       <c r="C11">
-        <v>-0.06650553092675977</v>
+        <v>0.08141947064157687</v>
       </c>
       <c r="D11">
-        <v>0.007862870210549598</v>
+        <v>0.02719591048004989</v>
       </c>
       <c r="E11">
-        <v>-0.03272574383713764</v>
+        <v>0.003150893537741548</v>
       </c>
       <c r="F11">
-        <v>-0.05596506673658846</v>
+        <v>0.009758581290116926</v>
       </c>
       <c r="G11">
-        <v>-0.03011432482097166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02709681075940774</v>
+      </c>
+      <c r="H11">
+        <v>0.03059591477646869</v>
+      </c>
+      <c r="I11">
+        <v>-0.002662731320785268</v>
+      </c>
+      <c r="J11">
+        <v>-0.0355167923350093</v>
+      </c>
+      <c r="K11">
+        <v>-0.04340503663116647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.01054723291287575</v>
+        <v>-0.01599618334610313</v>
       </c>
       <c r="C12">
-        <v>-0.06415913014320508</v>
+        <v>0.06420554414459928</v>
       </c>
       <c r="D12">
-        <v>0.01601175799661468</v>
+        <v>0.01609364605415413</v>
       </c>
       <c r="E12">
-        <v>-0.02152787344004589</v>
+        <v>-0.004714241543497622</v>
       </c>
       <c r="F12">
-        <v>-0.02788531645452171</v>
+        <v>-0.01737404608039818</v>
       </c>
       <c r="G12">
-        <v>-0.0586133363457854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0344894248333789</v>
+      </c>
+      <c r="H12">
+        <v>0.03106827570485919</v>
+      </c>
+      <c r="I12">
+        <v>-0.008458265627711391</v>
+      </c>
+      <c r="J12">
+        <v>-0.01747236202647398</v>
+      </c>
+      <c r="K12">
+        <v>-0.04731353758932388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.02084465278957903</v>
+        <v>-0.006216253557903635</v>
       </c>
       <c r="C13">
-        <v>-0.1043247372143693</v>
+        <v>0.1148166826919403</v>
       </c>
       <c r="D13">
-        <v>0.006511068866794509</v>
+        <v>0.02707672381588098</v>
       </c>
       <c r="E13">
-        <v>-0.126072951895576</v>
+        <v>0.09268078556657305</v>
       </c>
       <c r="F13">
-        <v>-0.0256558161149745</v>
+        <v>-0.1312151304999791</v>
       </c>
       <c r="G13">
-        <v>-0.1548272176359956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1145829117599393</v>
+      </c>
+      <c r="H13">
+        <v>0.09955525978096369</v>
+      </c>
+      <c r="I13">
+        <v>0.16385456283509</v>
+      </c>
+      <c r="J13">
+        <v>-0.09029318224119971</v>
+      </c>
+      <c r="K13">
+        <v>0.01022480933167243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01371722285649155</v>
+        <v>-0.01734659252520857</v>
       </c>
       <c r="C14">
-        <v>-0.05753975689153586</v>
+        <v>0.07407476908527483</v>
       </c>
       <c r="D14">
-        <v>-0.006880535475123459</v>
+        <v>0.03511265278927825</v>
       </c>
       <c r="E14">
-        <v>-0.05918610219541659</v>
+        <v>0.03425725822982895</v>
       </c>
       <c r="F14">
-        <v>-0.001347904855654109</v>
+        <v>-0.05045629201092554</v>
       </c>
       <c r="G14">
-        <v>-0.07259348126269162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.09816095599236981</v>
+      </c>
+      <c r="H14">
+        <v>0.1977192953738786</v>
+      </c>
+      <c r="I14">
+        <v>-0.01729809722546723</v>
+      </c>
+      <c r="J14">
+        <v>-0.1302646879391402</v>
+      </c>
+      <c r="K14">
+        <v>0.1507295709293213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.002061966280664546</v>
+        <v>-0.000862794724385706</v>
       </c>
       <c r="C15">
-        <v>-0.08129698406022672</v>
+        <v>0.07540111708785428</v>
       </c>
       <c r="D15">
-        <v>-0.02050249206627816</v>
+        <v>0.02368768288365624</v>
       </c>
       <c r="E15">
-        <v>-0.09896449983708587</v>
+        <v>0.04828278137606139</v>
       </c>
       <c r="F15">
-        <v>-0.01707976037329609</v>
+        <v>-0.002183138119036709</v>
       </c>
       <c r="G15">
-        <v>-0.03564182021052247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.0519476734215519</v>
+      </c>
+      <c r="H15">
+        <v>0.06976164267922598</v>
+      </c>
+      <c r="I15">
+        <v>-0.02024384117611037</v>
+      </c>
+      <c r="J15">
+        <v>-0.04954716589902561</v>
+      </c>
+      <c r="K15">
+        <v>0.0167949289546164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01838251029125683</v>
+        <v>-0.01674880874955945</v>
       </c>
       <c r="C16">
-        <v>-0.06223554579800223</v>
+        <v>0.06733887292652109</v>
       </c>
       <c r="D16">
-        <v>0.006270726141707168</v>
+        <v>0.01895187072904351</v>
       </c>
       <c r="E16">
-        <v>-0.02062610773730133</v>
+        <v>-0.002560287850476864</v>
       </c>
       <c r="F16">
-        <v>-0.03303536138441976</v>
+        <v>0.002559097830011183</v>
       </c>
       <c r="G16">
-        <v>-0.04867018733467905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02536919874471198</v>
+      </c>
+      <c r="H16">
+        <v>0.02832103662171844</v>
+      </c>
+      <c r="I16">
+        <v>-0.009352391764252954</v>
+      </c>
+      <c r="J16">
+        <v>-0.01387421334219132</v>
+      </c>
+      <c r="K16">
+        <v>-0.02823016691522994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01561649542551035</v>
+        <v>-0.0120791890352275</v>
       </c>
       <c r="C20">
-        <v>-0.07636317390650842</v>
+        <v>0.08527102200965073</v>
       </c>
       <c r="D20">
-        <v>-0.01440391447675381</v>
+        <v>0.01124289126219404</v>
       </c>
       <c r="E20">
-        <v>-0.05503171849800222</v>
+        <v>0.0148885203996187</v>
       </c>
       <c r="F20">
-        <v>-0.06786978330930848</v>
+        <v>0.02273310183558094</v>
       </c>
       <c r="G20">
-        <v>-0.05961930074333446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0685642792974703</v>
+      </c>
+      <c r="H20">
+        <v>0.06751915098070527</v>
+      </c>
+      <c r="I20">
+        <v>-0.02024973806148095</v>
+      </c>
+      <c r="J20">
+        <v>0.007060391924743044</v>
+      </c>
+      <c r="K20">
+        <v>-0.01321208545504137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.01017358587382399</v>
+        <v>-0.01336685403499164</v>
       </c>
       <c r="C21">
-        <v>-0.1057407422026205</v>
+        <v>0.08914211053748837</v>
       </c>
       <c r="D21">
-        <v>-0.043668641582541</v>
+        <v>0.01750753464833564</v>
       </c>
       <c r="E21">
-        <v>-0.01801205482307047</v>
+        <v>0.01480208874462325</v>
       </c>
       <c r="F21">
-        <v>0.0350947194218241</v>
+        <v>-0.08718666623723814</v>
       </c>
       <c r="G21">
-        <v>-0.0417905723571919</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01081085444668062</v>
+      </c>
+      <c r="H21">
+        <v>0.148105224762007</v>
+      </c>
+      <c r="I21">
+        <v>0.02951867477629019</v>
+      </c>
+      <c r="J21">
+        <v>-0.0452755738489145</v>
+      </c>
+      <c r="K21">
+        <v>-0.0232913018044516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.001104226541690763</v>
+        <v>0.007927189251330609</v>
       </c>
       <c r="C22">
-        <v>-0.1554161279646597</v>
+        <v>0.1605495937967419</v>
       </c>
       <c r="D22">
-        <v>-0.2699139099324592</v>
+        <v>0.00757821951605266</v>
       </c>
       <c r="E22">
-        <v>-0.2582367632446714</v>
+        <v>0.5066060392335638</v>
       </c>
       <c r="F22">
-        <v>0.05627639670070066</v>
+        <v>0.03975350473595514</v>
       </c>
       <c r="G22">
-        <v>0.2985868081243809</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1589309363217162</v>
+      </c>
+      <c r="H22">
+        <v>-0.3153952712016301</v>
+      </c>
+      <c r="I22">
+        <v>0.07759730279693257</v>
+      </c>
+      <c r="J22">
+        <v>-0.1819982359641967</v>
+      </c>
+      <c r="K22">
+        <v>-0.0337258741052513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.001526576249254127</v>
+        <v>0.003883515747042228</v>
       </c>
       <c r="C23">
-        <v>-0.1567113105488072</v>
+        <v>0.1646259636668262</v>
       </c>
       <c r="D23">
-        <v>-0.2684304029228216</v>
+        <v>0.005646448851447398</v>
       </c>
       <c r="E23">
-        <v>-0.2554786993320149</v>
+        <v>0.4929345609477253</v>
       </c>
       <c r="F23">
-        <v>0.05591627894044796</v>
+        <v>0.03641090789261527</v>
       </c>
       <c r="G23">
-        <v>0.2985534298225165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1538902814265164</v>
+      </c>
+      <c r="H23">
+        <v>-0.2941221635700873</v>
+      </c>
+      <c r="I23">
+        <v>0.07471898245488857</v>
+      </c>
+      <c r="J23">
+        <v>-0.1729164629033513</v>
+      </c>
+      <c r="K23">
+        <v>-0.04429290364864762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.006775347546043436</v>
+        <v>-0.01609679354571696</v>
       </c>
       <c r="C24">
-        <v>-0.08032920202660378</v>
+        <v>0.07808274587355842</v>
       </c>
       <c r="D24">
-        <v>0.02500324180413477</v>
+        <v>0.03264615417058201</v>
       </c>
       <c r="E24">
-        <v>-0.03488045308242384</v>
+        <v>0.0008913691444328716</v>
       </c>
       <c r="F24">
-        <v>-0.038535142297623</v>
+        <v>0.005534654673963268</v>
       </c>
       <c r="G24">
-        <v>-0.04192181320136514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03105250854477208</v>
+      </c>
+      <c r="H24">
+        <v>0.04026873832558157</v>
+      </c>
+      <c r="I24">
+        <v>-0.01083178392494158</v>
+      </c>
+      <c r="J24">
+        <v>-0.0204426840862905</v>
+      </c>
+      <c r="K24">
+        <v>-0.04749114174892244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.011559369363431</v>
+        <v>-0.02068544601125655</v>
       </c>
       <c r="C25">
-        <v>-0.07215081942488306</v>
+        <v>0.07461220243104755</v>
       </c>
       <c r="D25">
-        <v>0.004763992881513798</v>
+        <v>0.02164807836774307</v>
       </c>
       <c r="E25">
-        <v>-0.02500694994443367</v>
+        <v>0.004889401696102599</v>
       </c>
       <c r="F25">
-        <v>-0.04596952524248871</v>
+        <v>0.006785500059951206</v>
       </c>
       <c r="G25">
-        <v>-0.03822172409018157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03273077768565082</v>
+      </c>
+      <c r="H25">
+        <v>0.0327858680385547</v>
+      </c>
+      <c r="I25">
+        <v>0.005612148955172866</v>
+      </c>
+      <c r="J25">
+        <v>-0.03270403857744752</v>
+      </c>
+      <c r="K25">
+        <v>-0.03451267410695745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01557506965248068</v>
+        <v>-0.02441392256771143</v>
       </c>
       <c r="C26">
-        <v>-0.0589067005099454</v>
+        <v>0.06567867563815871</v>
       </c>
       <c r="D26">
-        <v>0.0219240543867416</v>
+        <v>0.05131191413216366</v>
       </c>
       <c r="E26">
-        <v>-0.04098448482130175</v>
+        <v>-0.00469778574497635</v>
       </c>
       <c r="F26">
-        <v>0.0042976633769178</v>
+        <v>-0.0004500311934352183</v>
       </c>
       <c r="G26">
-        <v>-0.03496581591010472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.008930831063668359</v>
+      </c>
+      <c r="H26">
+        <v>0.1052274131441213</v>
+      </c>
+      <c r="I26">
+        <v>-0.04738960099307822</v>
+      </c>
+      <c r="J26">
+        <v>0.05785616008734057</v>
+      </c>
+      <c r="K26">
+        <v>-0.07451609421516091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3626106769707499</v>
+        <v>-0.3220471992777597</v>
       </c>
       <c r="C28">
-        <v>0.1128036279313003</v>
+        <v>-0.1118479203215039</v>
       </c>
       <c r="D28">
-        <v>-0.001081571256856223</v>
+        <v>-0.02210996324403911</v>
       </c>
       <c r="E28">
-        <v>0.06418941737603379</v>
+        <v>0.007012777937417902</v>
       </c>
       <c r="F28">
-        <v>0.03360930940746201</v>
+        <v>-0.006408237988792067</v>
       </c>
       <c r="G28">
-        <v>0.02552378492048442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1104388732007757</v>
+      </c>
+      <c r="H28">
+        <v>0.09444098371146421</v>
+      </c>
+      <c r="I28">
+        <v>0.1846259786729662</v>
+      </c>
+      <c r="J28">
+        <v>0.05974066948102726</v>
+      </c>
+      <c r="K28">
+        <v>0.01759367394980581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01298283458821537</v>
+        <v>-0.01191317317465866</v>
       </c>
       <c r="C29">
-        <v>-0.05873218809996932</v>
+        <v>0.07762913398195602</v>
       </c>
       <c r="D29">
-        <v>-0.01689958301180346</v>
+        <v>0.03800300493754123</v>
       </c>
       <c r="E29">
-        <v>-0.1062361515985242</v>
+        <v>0.06357371467154531</v>
       </c>
       <c r="F29">
-        <v>-0.03203012426134787</v>
+        <v>-0.06571518518790698</v>
       </c>
       <c r="G29">
-        <v>-0.1082823215771536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1595251510218191</v>
+      </c>
+      <c r="H29">
+        <v>0.283145274619242</v>
+      </c>
+      <c r="I29">
+        <v>-0.01926595422574802</v>
+      </c>
+      <c r="J29">
+        <v>-0.1900680469027089</v>
+      </c>
+      <c r="K29">
+        <v>0.2734086956865273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.03995723462219931</v>
+        <v>-0.02784495330661934</v>
       </c>
       <c r="C30">
-        <v>-0.1799682538902295</v>
+        <v>0.1549082534820286</v>
       </c>
       <c r="D30">
-        <v>0.009891788547336433</v>
+        <v>0.04748377390292051</v>
       </c>
       <c r="E30">
-        <v>-0.0747711582345555</v>
+        <v>0.05179711183735387</v>
       </c>
       <c r="F30">
-        <v>-0.0111394134885211</v>
+        <v>0.00528229019869446</v>
       </c>
       <c r="G30">
-        <v>0.0277353891976256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.005504521698424065</v>
+      </c>
+      <c r="H30">
+        <v>0.02781082462277774</v>
+      </c>
+      <c r="I30">
+        <v>-0.05438119498240405</v>
+      </c>
+      <c r="J30">
+        <v>0.08748046797294834</v>
+      </c>
+      <c r="K30">
+        <v>-0.02886887710352948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.00151183882212219</v>
+        <v>-0.01230395126229598</v>
       </c>
       <c r="C31">
-        <v>-0.09417920796884108</v>
+        <v>0.09510932363245325</v>
       </c>
       <c r="D31">
-        <v>0.04729159811267469</v>
+        <v>0.03477939670938535</v>
       </c>
       <c r="E31">
-        <v>0.03025299042545868</v>
+        <v>-0.02056432908015005</v>
       </c>
       <c r="F31">
-        <v>0.01906320082795052</v>
+        <v>0.0008231137312200669</v>
       </c>
       <c r="G31">
-        <v>0.03839618127768988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04582733626249148</v>
+      </c>
+      <c r="H31">
+        <v>0.03988648151267132</v>
+      </c>
+      <c r="I31">
+        <v>0.009673179541201397</v>
+      </c>
+      <c r="J31">
+        <v>-0.05447332865823462</v>
+      </c>
+      <c r="K31">
+        <v>-0.0277799275276569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03391933410594791</v>
+        <v>-0.02292159760627193</v>
       </c>
       <c r="C32">
-        <v>-0.08633835027514471</v>
+        <v>0.06804396749679718</v>
       </c>
       <c r="D32">
-        <v>-0.06321307177437899</v>
+        <v>0.01402431498410242</v>
       </c>
       <c r="E32">
-        <v>-0.1390550578386801</v>
+        <v>0.09446205442914296</v>
       </c>
       <c r="F32">
-        <v>0.0412151499430735</v>
+        <v>-0.08238678666567829</v>
       </c>
       <c r="G32">
-        <v>-0.06214586149929594</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04580405136334207</v>
+      </c>
+      <c r="H32">
+        <v>0.153004146270408</v>
+      </c>
+      <c r="I32">
+        <v>0.2319417001439881</v>
+      </c>
+      <c r="J32">
+        <v>0.06366850116187063</v>
+      </c>
+      <c r="K32">
+        <v>0.145729963996895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.0111520499601173</v>
+        <v>-0.01544978511802252</v>
       </c>
       <c r="C33">
-        <v>-0.0924620878918129</v>
+        <v>0.1103256069317523</v>
       </c>
       <c r="D33">
-        <v>0.01315288534134215</v>
+        <v>0.03138978833368392</v>
       </c>
       <c r="E33">
-        <v>-0.05866000375151172</v>
+        <v>0.03126359033989473</v>
       </c>
       <c r="F33">
-        <v>-0.01069434596536696</v>
+        <v>-0.001768203690535951</v>
       </c>
       <c r="G33">
-        <v>-0.0291734320159247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03614941594611922</v>
+      </c>
+      <c r="H33">
+        <v>0.06351455099123049</v>
+      </c>
+      <c r="I33">
+        <v>0.01401962663949502</v>
+      </c>
+      <c r="J33">
+        <v>-0.009088001872170064</v>
+      </c>
+      <c r="K33">
+        <v>-0.01937348207808233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.006843802032396915</v>
+        <v>-0.01637956399875942</v>
       </c>
       <c r="C34">
-        <v>-0.05486664373582413</v>
+        <v>0.05371613916766522</v>
       </c>
       <c r="D34">
-        <v>0.005683341744837456</v>
+        <v>0.01610156107869047</v>
       </c>
       <c r="E34">
-        <v>-0.02377737091215201</v>
+        <v>-0.002771005459080493</v>
       </c>
       <c r="F34">
-        <v>-0.01912534143525055</v>
+        <v>-0.002792952938672229</v>
       </c>
       <c r="G34">
-        <v>-0.04073259556668992</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02726271014634994</v>
+      </c>
+      <c r="H34">
+        <v>0.00922422369394002</v>
+      </c>
+      <c r="I34">
+        <v>0.001813034272428426</v>
+      </c>
+      <c r="J34">
+        <v>-0.01565202708089265</v>
+      </c>
+      <c r="K34">
+        <v>-0.03853894558956034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002682183023152101</v>
+        <v>-0.007579624163201942</v>
       </c>
       <c r="C35">
-        <v>-0.01134103643692541</v>
+        <v>0.0358638321295305</v>
       </c>
       <c r="D35">
-        <v>-0.005506987656371931</v>
+        <v>0.01355885663123556</v>
       </c>
       <c r="E35">
-        <v>-0.01781213771435765</v>
+        <v>0.01881647384831124</v>
       </c>
       <c r="F35">
-        <v>-0.01286436026236221</v>
+        <v>-0.01518869260765051</v>
       </c>
       <c r="G35">
-        <v>-0.02547689325647427</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.064000162412972</v>
+      </c>
+      <c r="H35">
+        <v>0.1422922781664353</v>
+      </c>
+      <c r="I35">
+        <v>0.01993732107575121</v>
+      </c>
+      <c r="J35">
+        <v>-0.1499310099544632</v>
+      </c>
+      <c r="K35">
+        <v>0.1426914420935908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.007742667482778134</v>
+        <v>-0.01343463741462356</v>
       </c>
       <c r="C36">
-        <v>-0.05155153858055046</v>
+        <v>0.05209587111622817</v>
       </c>
       <c r="D36">
-        <v>0.02445410453568932</v>
+        <v>0.0395317495445145</v>
       </c>
       <c r="E36">
-        <v>-0.05134403106292904</v>
+        <v>0.01514510643822665</v>
       </c>
       <c r="F36">
-        <v>0.0009020409201109708</v>
+        <v>-0.001981879422108616</v>
       </c>
       <c r="G36">
-        <v>-0.01541940080207828</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01444227432493404</v>
+      </c>
+      <c r="H36">
+        <v>0.06639509996028918</v>
+      </c>
+      <c r="I36">
+        <v>-0.0166277656920084</v>
+      </c>
+      <c r="J36">
+        <v>0.01787655342738195</v>
+      </c>
+      <c r="K36">
+        <v>-0.05584062901468842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.01409699347177881</v>
+        <v>-0.01039677461853623</v>
       </c>
       <c r="C38">
-        <v>-0.05463680297637</v>
+        <v>0.06617853640376448</v>
       </c>
       <c r="D38">
-        <v>0.006781146543614777</v>
+        <v>0.02980364555795464</v>
       </c>
       <c r="E38">
-        <v>-0.0538223413125417</v>
+        <v>0.03375325909123858</v>
       </c>
       <c r="F38">
-        <v>-0.01647977451193609</v>
+        <v>0.02892850246563809</v>
       </c>
       <c r="G38">
-        <v>0.03083795466157243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01440945148890093</v>
+      </c>
+      <c r="H38">
+        <v>0.07010809486285198</v>
+      </c>
+      <c r="I38">
+        <v>0.05941731013579645</v>
+      </c>
+      <c r="J38">
+        <v>-0.03108458608397746</v>
+      </c>
+      <c r="K38">
+        <v>-0.06737369311290752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.004052727423457659</v>
+        <v>-0.0155581530765665</v>
       </c>
       <c r="C39">
-        <v>-0.1368833335542215</v>
+        <v>0.1338906205768307</v>
       </c>
       <c r="D39">
-        <v>0.004586810138692476</v>
+        <v>0.04675710237701221</v>
       </c>
       <c r="E39">
-        <v>-0.06093673312249704</v>
+        <v>0.009849877630543966</v>
       </c>
       <c r="F39">
-        <v>-0.04708000178309642</v>
+        <v>-0.005476507281801164</v>
       </c>
       <c r="G39">
-        <v>-0.05076288059638027</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05267339835027338</v>
+      </c>
+      <c r="H39">
+        <v>0.03794860696115863</v>
+      </c>
+      <c r="I39">
+        <v>-0.05733259054302715</v>
+      </c>
+      <c r="J39">
+        <v>-0.001287632173650994</v>
+      </c>
+      <c r="K39">
+        <v>-0.05907992806225474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.002538393390189796</v>
+        <v>-0.01329302316779517</v>
       </c>
       <c r="C40">
-        <v>-0.03618396614329707</v>
+        <v>0.06529139375221482</v>
       </c>
       <c r="D40">
-        <v>-0.009422759600763872</v>
+        <v>0.02613398500636691</v>
       </c>
       <c r="E40">
-        <v>-0.1375727132018035</v>
+        <v>0.09020343207252168</v>
       </c>
       <c r="F40">
-        <v>0.02381211182096035</v>
+        <v>-0.04888920920478213</v>
       </c>
       <c r="G40">
-        <v>-0.08701340717183227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1345572018827642</v>
+      </c>
+      <c r="H40">
+        <v>0.003699641294656377</v>
+      </c>
+      <c r="I40">
+        <v>0.06158778323605364</v>
+      </c>
+      <c r="J40">
+        <v>-0.2335606773111334</v>
+      </c>
+      <c r="K40">
+        <v>-0.06868271031417406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.008157884754450742</v>
+        <v>-0.02058005199813989</v>
       </c>
       <c r="C41">
-        <v>-0.01780341104057907</v>
+        <v>0.04788781415510417</v>
       </c>
       <c r="D41">
-        <v>-0.002445092392300418</v>
+        <v>0.009239943486565453</v>
       </c>
       <c r="E41">
-        <v>0.01000350019048262</v>
+        <v>-0.01021151453905888</v>
       </c>
       <c r="F41">
-        <v>0.003829252142212629</v>
+        <v>0.005327094605625571</v>
       </c>
       <c r="G41">
-        <v>0.000104240481130994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01200235989367431</v>
+      </c>
+      <c r="H41">
+        <v>0.0332355104735188</v>
+      </c>
+      <c r="I41">
+        <v>0.04199513265760748</v>
+      </c>
+      <c r="J41">
+        <v>-0.06231531192121834</v>
+      </c>
+      <c r="K41">
+        <v>0.002840808657906372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.002373470889936508</v>
+        <v>-0.01537209716504257</v>
       </c>
       <c r="C43">
-        <v>-0.02137617205390453</v>
+        <v>0.04597179029624708</v>
       </c>
       <c r="D43">
-        <v>0.003777988301075169</v>
+        <v>0.02516048119335747</v>
       </c>
       <c r="E43">
-        <v>-0.02113545024615469</v>
+        <v>0.004601666895178839</v>
       </c>
       <c r="F43">
-        <v>-0.02196755000137472</v>
+        <v>0.01580134391831751</v>
       </c>
       <c r="G43">
-        <v>-0.0007714039562489458</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01714832205136844</v>
+      </c>
+      <c r="H43">
+        <v>0.04824802665785805</v>
+      </c>
+      <c r="I43">
+        <v>0.01216493250067119</v>
+      </c>
+      <c r="J43">
+        <v>-0.0555455804027352</v>
+      </c>
+      <c r="K43">
+        <v>0.001519695572548735</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01911075901194195</v>
+        <v>-0.009062415266157604</v>
       </c>
       <c r="C44">
-        <v>-0.08505669120626454</v>
+        <v>0.09109827237804446</v>
       </c>
       <c r="D44">
-        <v>-0.04289086797057094</v>
+        <v>0.04311136847039112</v>
       </c>
       <c r="E44">
-        <v>-0.1114593688502175</v>
+        <v>0.08701186948914019</v>
       </c>
       <c r="F44">
-        <v>-0.02810530293289777</v>
+        <v>0.005465959640969622</v>
       </c>
       <c r="G44">
-        <v>-0.002768318249852511</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03846993758769354</v>
+      </c>
+      <c r="H44">
+        <v>0.03977154005444765</v>
+      </c>
+      <c r="I44">
+        <v>-0.06431007927646477</v>
+      </c>
+      <c r="J44">
+        <v>0.05486623968836201</v>
+      </c>
+      <c r="K44">
+        <v>0.01789536662124303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.003827802708211285</v>
+        <v>-0.003269694906231788</v>
       </c>
       <c r="C46">
-        <v>-0.06228884187261073</v>
+        <v>0.06460299070147006</v>
       </c>
       <c r="D46">
-        <v>-0.00815169605556244</v>
+        <v>0.02129050334255955</v>
       </c>
       <c r="E46">
-        <v>-0.06280662045133173</v>
+        <v>0.01384665825420927</v>
       </c>
       <c r="F46">
-        <v>-0.0272828939295966</v>
+        <v>-0.01223695473927808</v>
       </c>
       <c r="G46">
-        <v>-0.07197869863718873</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05302790303324365</v>
+      </c>
+      <c r="H46">
+        <v>0.1117702743294323</v>
+      </c>
+      <c r="I46">
+        <v>-0.0008826080062377649</v>
+      </c>
+      <c r="J46">
+        <v>-0.08984504498865706</v>
+      </c>
+      <c r="K46">
+        <v>0.04916207673649711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.008306531378850488</v>
+        <v>-0.02264636586667414</v>
       </c>
       <c r="C47">
-        <v>-0.1166634149938465</v>
+        <v>0.09874739603116206</v>
       </c>
       <c r="D47">
-        <v>0.0401333583821743</v>
+        <v>0.0359385080429472</v>
       </c>
       <c r="E47">
-        <v>0.06254225979086325</v>
+        <v>-0.0335341111033761</v>
       </c>
       <c r="F47">
-        <v>0.0252464382184878</v>
+        <v>-0.005085377509130551</v>
       </c>
       <c r="G47">
-        <v>-0.001547862835788256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01735251368377224</v>
+      </c>
+      <c r="H47">
+        <v>0.0762767252338328</v>
+      </c>
+      <c r="I47">
+        <v>0.03512239700495231</v>
+      </c>
+      <c r="J47">
+        <v>-0.03946839302585285</v>
+      </c>
+      <c r="K47">
+        <v>-0.04599416005616539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01700364455044125</v>
+        <v>-0.02141566947668189</v>
       </c>
       <c r="C48">
-        <v>-0.05444770189716024</v>
+        <v>0.05838981905180159</v>
       </c>
       <c r="D48">
-        <v>0.04609603018293008</v>
+        <v>0.05071142333536251</v>
       </c>
       <c r="E48">
-        <v>-0.05208354811440667</v>
+        <v>0.005309373509210699</v>
       </c>
       <c r="F48">
-        <v>-0.005234983539042081</v>
+        <v>0.001765868008334531</v>
       </c>
       <c r="G48">
-        <v>-0.01695104817860748</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0087620105980778</v>
+      </c>
+      <c r="H48">
+        <v>0.1069693151228893</v>
+      </c>
+      <c r="I48">
+        <v>-0.03797681831068155</v>
+      </c>
+      <c r="J48">
+        <v>0.05307554715084068</v>
+      </c>
+      <c r="K48">
+        <v>-0.08647693813960747</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.008873013625389599</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01778889900859206</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.001441515816804868</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02821794124686547</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.008301192268036162</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.01653868056406586</v>
+      </c>
+      <c r="H49">
+        <v>-0.01591631417764469</v>
+      </c>
+      <c r="I49">
+        <v>-0.03655078952631723</v>
+      </c>
+      <c r="J49">
+        <v>0.007309664480102044</v>
+      </c>
+      <c r="K49">
+        <v>0.005678078462710721</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.005964981863551442</v>
+        <v>-0.01413290244205557</v>
       </c>
       <c r="C50">
-        <v>-0.09647049684601652</v>
+        <v>0.09043039287201819</v>
       </c>
       <c r="D50">
-        <v>0.02250072459443603</v>
+        <v>0.02058689074218241</v>
       </c>
       <c r="E50">
-        <v>0.01775095801102179</v>
+        <v>-0.009079794801392614</v>
       </c>
       <c r="F50">
-        <v>0.008992364061073062</v>
+        <v>0.00415198577319792</v>
       </c>
       <c r="G50">
-        <v>0.04249775992033968</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0287507643215368</v>
+      </c>
+      <c r="H50">
+        <v>0.06420239382097385</v>
+      </c>
+      <c r="I50">
+        <v>0.05394934095124349</v>
+      </c>
+      <c r="J50">
+        <v>-0.03217201219303296</v>
+      </c>
+      <c r="K50">
+        <v>-0.01425496451005182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.01029064499960244</v>
+        <v>0.004704334757617408</v>
       </c>
       <c r="C51">
-        <v>-0.06510529719619509</v>
+        <v>0.04301774047702397</v>
       </c>
       <c r="D51">
-        <v>-0.04376571274877045</v>
+        <v>0.01449627918046447</v>
       </c>
       <c r="E51">
-        <v>-0.0749869043601832</v>
+        <v>0.03069769014640699</v>
       </c>
       <c r="F51">
-        <v>-0.0104198029392216</v>
+        <v>-0.01752796538233911</v>
       </c>
       <c r="G51">
-        <v>-0.010925554680657</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0252298552505691</v>
+      </c>
+      <c r="H51">
+        <v>0.08960867147912592</v>
+      </c>
+      <c r="I51">
+        <v>-0.04749036210434519</v>
+      </c>
+      <c r="J51">
+        <v>0.1123133358999979</v>
+      </c>
+      <c r="K51">
+        <v>-0.02487504800113512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.04525106661990785</v>
+        <v>-0.05556320559052057</v>
       </c>
       <c r="C53">
-        <v>-0.1490571997478354</v>
+        <v>0.1385741535582098</v>
       </c>
       <c r="D53">
-        <v>0.07936107098306647</v>
+        <v>0.04575645369314469</v>
       </c>
       <c r="E53">
-        <v>0.06957304262715115</v>
+        <v>-0.08412411470815848</v>
       </c>
       <c r="F53">
-        <v>-0.02299562563341882</v>
+        <v>0.009782777377162042</v>
       </c>
       <c r="G53">
-        <v>0.05664756582955997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.06740401442994877</v>
+      </c>
+      <c r="H53">
+        <v>-0.01182322617329374</v>
+      </c>
+      <c r="I53">
+        <v>0.03663578631842739</v>
+      </c>
+      <c r="J53">
+        <v>-0.02547396982438349</v>
+      </c>
+      <c r="K53">
+        <v>-0.09007103450449173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01468083518741283</v>
+        <v>-0.01663440340827653</v>
       </c>
       <c r="C54">
-        <v>-0.06011170407542316</v>
+        <v>0.07076173130586214</v>
       </c>
       <c r="D54">
-        <v>-0.01062776424940164</v>
+        <v>0.002622279662211867</v>
       </c>
       <c r="E54">
-        <v>-0.0174355487013892</v>
+        <v>-0.001204594622628045</v>
       </c>
       <c r="F54">
-        <v>-0.03113647148417336</v>
+        <v>-0.001736740013055556</v>
       </c>
       <c r="G54">
-        <v>-0.006200052752400585</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02837708608114608</v>
+      </c>
+      <c r="H54">
+        <v>0.06679800565288251</v>
+      </c>
+      <c r="I54">
+        <v>-0.01623969465589655</v>
+      </c>
+      <c r="J54">
+        <v>-0.0364552707851904</v>
+      </c>
+      <c r="K54">
+        <v>0.01978043947444751</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.03185908644835124</v>
+        <v>-0.03195326364750106</v>
       </c>
       <c r="C55">
-        <v>-0.1144326052666289</v>
+        <v>0.1004110775458677</v>
       </c>
       <c r="D55">
-        <v>0.08364600237288596</v>
+        <v>0.04893540293107534</v>
       </c>
       <c r="E55">
-        <v>0.03540777829245684</v>
+        <v>-0.07098984069924874</v>
       </c>
       <c r="F55">
-        <v>0.01487134191521507</v>
+        <v>0.008080168230075556</v>
       </c>
       <c r="G55">
-        <v>0.01121453174915191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03505454038480859</v>
+      </c>
+      <c r="H55">
+        <v>-0.005372159935425794</v>
+      </c>
+      <c r="I55">
+        <v>-0.02301496087755741</v>
+      </c>
+      <c r="J55">
+        <v>-0.01608131318100151</v>
+      </c>
+      <c r="K55">
+        <v>-0.06440927167219486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.03800733874008375</v>
+        <v>-0.04274076872770117</v>
       </c>
       <c r="C56">
-        <v>-0.1831773777427138</v>
+        <v>0.1652376538736928</v>
       </c>
       <c r="D56">
-        <v>0.09828602202305473</v>
+        <v>0.06602300809140041</v>
       </c>
       <c r="E56">
-        <v>0.1226509257263324</v>
+        <v>-0.1300538250558623</v>
       </c>
       <c r="F56">
-        <v>0.01834650393296724</v>
+        <v>0.0008256342216111801</v>
       </c>
       <c r="G56">
-        <v>0.06196905814837511</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1250365886230665</v>
+      </c>
+      <c r="H56">
+        <v>-0.02898870997939704</v>
+      </c>
+      <c r="I56">
+        <v>0.03266912218055815</v>
+      </c>
+      <c r="J56">
+        <v>0.01415130472566837</v>
+      </c>
+      <c r="K56">
+        <v>-0.05693567141576047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03320540324760261</v>
+        <v>-0.01756300665551333</v>
       </c>
       <c r="C58">
-        <v>-0.2222631929458932</v>
+        <v>0.1818568948692703</v>
       </c>
       <c r="D58">
-        <v>-0.2007738169205644</v>
+        <v>0.010852701943305</v>
       </c>
       <c r="E58">
-        <v>-0.1720393274762323</v>
+        <v>0.2830337832322815</v>
       </c>
       <c r="F58">
-        <v>-0.009601208929064305</v>
+        <v>-0.007937403620727956</v>
       </c>
       <c r="G58">
-        <v>0.2377207331571193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1429935780514181</v>
+      </c>
+      <c r="H58">
+        <v>0.038448821146413</v>
+      </c>
+      <c r="I58">
+        <v>-0.02417655720398645</v>
+      </c>
+      <c r="J58">
+        <v>0.4265009876125223</v>
+      </c>
+      <c r="K58">
+        <v>0.2606585149094259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2772775784537413</v>
+        <v>-0.2843246122324116</v>
       </c>
       <c r="C59">
-        <v>0.02160334462967095</v>
+        <v>-0.04079860968822609</v>
       </c>
       <c r="D59">
-        <v>-0.03684732208100747</v>
+        <v>-0.0003759221603023104</v>
       </c>
       <c r="E59">
-        <v>-0.02829165977227859</v>
+        <v>0.04239064778461246</v>
       </c>
       <c r="F59">
-        <v>0.06203296204774202</v>
+        <v>-0.02372442696886933</v>
       </c>
       <c r="G59">
-        <v>-0.03368895232880833</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01418881991163903</v>
+      </c>
+      <c r="H59">
+        <v>-0.0253879064796688</v>
+      </c>
+      <c r="I59">
+        <v>0.03393258042169962</v>
+      </c>
+      <c r="J59">
+        <v>-0.01103163805275253</v>
+      </c>
+      <c r="K59">
+        <v>-0.02685341081687816</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1171544588354441</v>
+        <v>-0.14757164514618</v>
       </c>
       <c r="C60">
-        <v>-0.1339133723540839</v>
+        <v>0.1470230469068433</v>
       </c>
       <c r="D60">
-        <v>0.05133820307899556</v>
+        <v>0.03477493458439508</v>
       </c>
       <c r="E60">
-        <v>-0.03358765017524293</v>
+        <v>-0.06841628911118329</v>
       </c>
       <c r="F60">
-        <v>-0.1159991465976156</v>
+        <v>-0.04194698172484679</v>
       </c>
       <c r="G60">
-        <v>-0.2959558549658511</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2576426130066288</v>
+      </c>
+      <c r="H60">
+        <v>-0.2608506497216196</v>
+      </c>
+      <c r="I60">
+        <v>-0.03869213088009898</v>
+      </c>
+      <c r="J60">
+        <v>0.01366593387300853</v>
+      </c>
+      <c r="K60">
+        <v>0.1016807848696615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.007749258845265524</v>
+        <v>-0.01871484748675625</v>
       </c>
       <c r="C61">
-        <v>-0.09647470423808518</v>
+        <v>0.1042118141354735</v>
       </c>
       <c r="D61">
-        <v>0.0356527499803367</v>
+        <v>0.0439887263605671</v>
       </c>
       <c r="E61">
-        <v>-0.03592301980452379</v>
+        <v>-0.01573782502338213</v>
       </c>
       <c r="F61">
-        <v>-0.04060921329359467</v>
+        <v>-0.002014271802126963</v>
       </c>
       <c r="G61">
-        <v>-0.06953423115823608</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.05023799833177386</v>
+      </c>
+      <c r="H61">
+        <v>0.04537193430856572</v>
+      </c>
+      <c r="I61">
+        <v>-0.02200820050647854</v>
+      </c>
+      <c r="J61">
+        <v>-0.03685753607586233</v>
+      </c>
+      <c r="K61">
+        <v>-0.04329427387561283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0007537252514737985</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.004335809011586944</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.002812292405123003</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01214960530730251</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.002438850034184617</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02016414554248271</v>
+      </c>
+      <c r="H62">
+        <v>0.009444773592411393</v>
+      </c>
+      <c r="I62">
+        <v>-0.005166115950723129</v>
+      </c>
+      <c r="J62">
+        <v>-0.007388407111548849</v>
+      </c>
+      <c r="K62">
+        <v>0.01112321148231524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.003937447492807539</v>
+        <v>-0.02333126481885672</v>
       </c>
       <c r="C63">
-        <v>-0.06564886453844283</v>
+        <v>0.0759000668339485</v>
       </c>
       <c r="D63">
-        <v>0.01288322953764185</v>
+        <v>0.04577825083429681</v>
       </c>
       <c r="E63">
-        <v>-0.02107432639029264</v>
+        <v>-0.002229668030335496</v>
       </c>
       <c r="F63">
-        <v>-0.0316499713092355</v>
+        <v>-0.004296265327398721</v>
       </c>
       <c r="G63">
-        <v>-0.02130364842938742</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.026364005879395</v>
+      </c>
+      <c r="H63">
+        <v>0.05645105469310039</v>
+      </c>
+      <c r="I63">
+        <v>-0.002688421546427321</v>
+      </c>
+      <c r="J63">
+        <v>-0.03571894855554017</v>
+      </c>
+      <c r="K63">
+        <v>-0.05025860008620549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.008627736018353644</v>
+        <v>-0.01915854639072814</v>
       </c>
       <c r="C64">
-        <v>-0.1081677830563492</v>
+        <v>0.09957340211228481</v>
       </c>
       <c r="D64">
-        <v>0.0393485583237918</v>
+        <v>0.02949470902633419</v>
       </c>
       <c r="E64">
-        <v>-0.03069349377513688</v>
+        <v>0.04092968339160469</v>
       </c>
       <c r="F64">
-        <v>-0.0197486583369006</v>
+        <v>0.02580275221297657</v>
       </c>
       <c r="G64">
-        <v>-0.01339197953816008</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01978002324407498</v>
+      </c>
+      <c r="H64">
+        <v>0.03686630276603972</v>
+      </c>
+      <c r="I64">
+        <v>-0.0224363241147776</v>
+      </c>
+      <c r="J64">
+        <v>-0.02871346588759537</v>
+      </c>
+      <c r="K64">
+        <v>-0.1098997094264476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02180802668212196</v>
+        <v>-0.02975593404176101</v>
       </c>
       <c r="C65">
-        <v>-0.06573305415263318</v>
+        <v>0.08664045060423396</v>
       </c>
       <c r="D65">
-        <v>-0.03494060620152627</v>
+        <v>0.004970367361420297</v>
       </c>
       <c r="E65">
-        <v>-0.07663975892995978</v>
+        <v>0.06273220341990177</v>
       </c>
       <c r="F65">
-        <v>-0.04516344116186904</v>
+        <v>0.01344033832571336</v>
       </c>
       <c r="G65">
-        <v>-0.07296530355597686</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.1263081160514737</v>
+      </c>
+      <c r="H65">
+        <v>-0.01200733268633342</v>
+      </c>
+      <c r="I65">
+        <v>-0.08572122195526574</v>
+      </c>
+      <c r="J65">
+        <v>0.06053531876051365</v>
+      </c>
+      <c r="K65">
+        <v>0.03357385696999218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.002040762507476553</v>
+        <v>-0.01165563116875339</v>
       </c>
       <c r="C66">
-        <v>-0.1629930542277195</v>
+        <v>0.1626984503399496</v>
       </c>
       <c r="D66">
-        <v>-0.03097355396868553</v>
+        <v>0.031713712419845</v>
       </c>
       <c r="E66">
-        <v>-0.08598559928171</v>
+        <v>0.02874020323013426</v>
       </c>
       <c r="F66">
-        <v>-0.02958851495133335</v>
+        <v>-0.01356833817509212</v>
       </c>
       <c r="G66">
-        <v>-0.0791296411182046</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04405337700960127</v>
+      </c>
+      <c r="H66">
+        <v>0.04525863453411857</v>
+      </c>
+      <c r="I66">
+        <v>-0.03423473712621147</v>
+      </c>
+      <c r="J66">
+        <v>0.005950919314154764</v>
+      </c>
+      <c r="K66">
+        <v>-0.03296069508558215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.01870292859654297</v>
+        <v>-0.0201138457092507</v>
       </c>
       <c r="C67">
-        <v>-0.04274666987835119</v>
+        <v>0.05676105379232847</v>
       </c>
       <c r="D67">
-        <v>0.04613378123890575</v>
+        <v>0.03527005655984503</v>
       </c>
       <c r="E67">
-        <v>-0.0226989997584842</v>
+        <v>-0.001504852251840563</v>
       </c>
       <c r="F67">
-        <v>-0.02103025302445955</v>
+        <v>0.02961194760355773</v>
       </c>
       <c r="G67">
-        <v>0.02378849624390827</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03264542503898235</v>
+      </c>
+      <c r="H67">
+        <v>0.0443177753303576</v>
+      </c>
+      <c r="I67">
+        <v>0.05244589989259054</v>
+      </c>
+      <c r="J67">
+        <v>-0.04733597718688398</v>
+      </c>
+      <c r="K67">
+        <v>-0.05208052895051093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2586743954372292</v>
+        <v>-0.2887407379346815</v>
       </c>
       <c r="C68">
-        <v>0.03946532077677564</v>
+        <v>-0.04706385700098046</v>
       </c>
       <c r="D68">
-        <v>-0.04305671652438591</v>
+        <v>-0.02686834352413557</v>
       </c>
       <c r="E68">
-        <v>-0.03542342228872881</v>
+        <v>0.06629690994739677</v>
       </c>
       <c r="F68">
-        <v>0.02556160219699805</v>
+        <v>-0.01008438827572107</v>
       </c>
       <c r="G68">
-        <v>0.07848111372373553</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03719223765418268</v>
+      </c>
+      <c r="H68">
+        <v>-0.01933738980313392</v>
+      </c>
+      <c r="I68">
+        <v>0.05316556658877049</v>
+      </c>
+      <c r="J68">
+        <v>-0.005520108893664753</v>
+      </c>
+      <c r="K68">
+        <v>-0.01155944417522599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.009336085818026429</v>
+        <v>-0.008340054969158144</v>
       </c>
       <c r="C69">
-        <v>-0.1027300702423216</v>
+        <v>0.07859746886369279</v>
       </c>
       <c r="D69">
-        <v>0.06880683865609812</v>
+        <v>0.02573492379759747</v>
       </c>
       <c r="E69">
-        <v>0.01456280918616195</v>
+        <v>-0.02515706178872766</v>
       </c>
       <c r="F69">
-        <v>0.004080206131071037</v>
+        <v>0.001155629853805289</v>
       </c>
       <c r="G69">
-        <v>0.04583479671948684</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.004187157886891809</v>
+      </c>
+      <c r="H69">
+        <v>0.05823156228485281</v>
+      </c>
+      <c r="I69">
+        <v>0.02463015477758934</v>
+      </c>
+      <c r="J69">
+        <v>-0.00819674858958596</v>
+      </c>
+      <c r="K69">
+        <v>-0.05448619417144574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2898521095965246</v>
+        <v>-0.2789936850671383</v>
       </c>
       <c r="C71">
-        <v>0.05283198436054921</v>
+        <v>-0.07172771076056775</v>
       </c>
       <c r="D71">
-        <v>-0.01257253988570429</v>
+        <v>-0.01275395892818631</v>
       </c>
       <c r="E71">
-        <v>0.002270012970750164</v>
+        <v>0.03149024481413348</v>
       </c>
       <c r="F71">
-        <v>-0.006116232808839376</v>
+        <v>0.01522864762247292</v>
       </c>
       <c r="G71">
-        <v>0.008248253909932089</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0198909033341763</v>
+      </c>
+      <c r="H71">
+        <v>0.0626738564461103</v>
+      </c>
+      <c r="I71">
+        <v>0.09264519094185671</v>
+      </c>
+      <c r="J71">
+        <v>0.08847565254279396</v>
+      </c>
+      <c r="K71">
+        <v>-0.05679597418083025</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.03309954456755306</v>
+        <v>-0.05481284655692938</v>
       </c>
       <c r="C72">
-        <v>-0.1661847983318535</v>
+        <v>0.1490928555467561</v>
       </c>
       <c r="D72">
-        <v>0.006655886827009269</v>
+        <v>0.02333053674448622</v>
       </c>
       <c r="E72">
-        <v>-0.09493507695643047</v>
+        <v>0.009766649380663827</v>
       </c>
       <c r="F72">
-        <v>-0.08837797906501929</v>
+        <v>-0.001528420442296231</v>
       </c>
       <c r="G72">
-        <v>-0.04962943391383848</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0555186921372941</v>
+      </c>
+      <c r="H72">
+        <v>-0.02452860090248122</v>
+      </c>
+      <c r="I72">
+        <v>-0.09188958306307485</v>
+      </c>
+      <c r="J72">
+        <v>0.03607383126765783</v>
+      </c>
+      <c r="K72">
+        <v>-0.01133658237347438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.09936751149034818</v>
+        <v>-0.1539959889525936</v>
       </c>
       <c r="C73">
-        <v>-0.1408004792618449</v>
+        <v>0.1863725097774383</v>
       </c>
       <c r="D73">
-        <v>0.1019806512752374</v>
+        <v>0.06084897833939056</v>
       </c>
       <c r="E73">
-        <v>-0.026157625831568</v>
+        <v>-0.1640876389458748</v>
       </c>
       <c r="F73">
-        <v>-0.1809717629738097</v>
+        <v>-0.02411350631129166</v>
       </c>
       <c r="G73">
-        <v>-0.3851149156949244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3946428490833074</v>
+      </c>
+      <c r="H73">
+        <v>-0.3269164911481796</v>
+      </c>
+      <c r="I73">
+        <v>0.06337821514397826</v>
+      </c>
+      <c r="J73">
+        <v>0.1097705949110754</v>
+      </c>
+      <c r="K73">
+        <v>0.06935384030830395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.02089607383574224</v>
+        <v>-0.03636145003044999</v>
       </c>
       <c r="C74">
-        <v>-0.1070991229056098</v>
+        <v>0.1085281095353023</v>
       </c>
       <c r="D74">
-        <v>0.09322775639819765</v>
+        <v>0.03868284022485315</v>
       </c>
       <c r="E74">
-        <v>0.06797175822589613</v>
+        <v>-0.07545528180351763</v>
       </c>
       <c r="F74">
-        <v>0.01524672834274538</v>
+        <v>0.01224917659926673</v>
       </c>
       <c r="G74">
-        <v>0.01731050316262241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04216376492200336</v>
+      </c>
+      <c r="H74">
+        <v>0.006700752648029056</v>
+      </c>
+      <c r="I74">
+        <v>-0.009311463830182991</v>
+      </c>
+      <c r="J74">
+        <v>0.002573874960984536</v>
+      </c>
+      <c r="K74">
+        <v>-0.07471147991194721</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.07157080249937217</v>
+        <v>-0.06147173826306518</v>
       </c>
       <c r="C75">
-        <v>-0.1781733912362781</v>
+        <v>0.1827518309317777</v>
       </c>
       <c r="D75">
-        <v>0.156540244351315</v>
+        <v>0.06218077593740903</v>
       </c>
       <c r="E75">
-        <v>0.1804960963016239</v>
+        <v>-0.1683652041387498</v>
       </c>
       <c r="F75">
-        <v>0.02895038854694063</v>
+        <v>0.08424308280790929</v>
       </c>
       <c r="G75">
-        <v>0.1473543520199772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1829898017834307</v>
+      </c>
+      <c r="H75">
+        <v>-0.03032065927576898</v>
+      </c>
+      <c r="I75">
+        <v>0.1069552159931213</v>
+      </c>
+      <c r="J75">
+        <v>-0.04921418691388573</v>
+      </c>
+      <c r="K75">
+        <v>-0.05990121448309638</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.04298781461649247</v>
+        <v>-0.04231185613817561</v>
       </c>
       <c r="C76">
-        <v>-0.1313682947331826</v>
+        <v>0.1334955531145816</v>
       </c>
       <c r="D76">
-        <v>0.09754254896076628</v>
+        <v>0.06235763937287215</v>
       </c>
       <c r="E76">
-        <v>0.08440651213664076</v>
+        <v>-0.107060647496127</v>
       </c>
       <c r="F76">
-        <v>0.009408676236629353</v>
+        <v>0.02211731148005164</v>
       </c>
       <c r="G76">
-        <v>-0.005100614594675859</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.0529960487309126</v>
+      </c>
+      <c r="H76">
+        <v>-0.001144270038338185</v>
+      </c>
+      <c r="I76">
+        <v>0.005015837374193648</v>
+      </c>
+      <c r="J76">
+        <v>-0.03662016751805232</v>
+      </c>
+      <c r="K76">
+        <v>-0.139527721898945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08760418903200173</v>
+        <v>-0.04670126892915472</v>
       </c>
       <c r="C77">
-        <v>-0.1973003772507848</v>
+        <v>0.2981426286913942</v>
       </c>
       <c r="D77">
-        <v>-0.6939139725286053</v>
+        <v>-0.9396489647994193</v>
       </c>
       <c r="E77">
-        <v>0.5751220248674523</v>
+        <v>-0.07634988851252601</v>
       </c>
       <c r="F77">
-        <v>-0.2450605573487713</v>
+        <v>0.0541493441526919</v>
       </c>
       <c r="G77">
-        <v>-0.08184664700956694</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0001200108395743688</v>
+      </c>
+      <c r="H77">
+        <v>0.04516341418127223</v>
+      </c>
+      <c r="I77">
+        <v>-0.00395147030371399</v>
+      </c>
+      <c r="J77">
+        <v>-0.01052847709428598</v>
+      </c>
+      <c r="K77">
+        <v>-0.005884539027637354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03741960710451505</v>
+        <v>-0.03359754015059511</v>
       </c>
       <c r="C78">
-        <v>-0.1814864896870681</v>
+        <v>0.1333896014908074</v>
       </c>
       <c r="D78">
-        <v>0.02878953990803767</v>
+        <v>0.08462833537723356</v>
       </c>
       <c r="E78">
-        <v>-0.03781321063276364</v>
+        <v>-0.02763958086551531</v>
       </c>
       <c r="F78">
-        <v>0.1615087527346735</v>
+        <v>-0.03525768432275168</v>
       </c>
       <c r="G78">
-        <v>0.01595403999316956</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1201182623849229</v>
+      </c>
+      <c r="H78">
+        <v>0.08665733944351262</v>
+      </c>
+      <c r="I78">
+        <v>-0.2134637310489246</v>
+      </c>
+      <c r="J78">
+        <v>0.4199295046375566</v>
+      </c>
+      <c r="K78">
+        <v>-0.01620827598232131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.046321293230028</v>
+        <v>-0.0567288112517083</v>
       </c>
       <c r="C79">
-        <v>-0.2183748675078326</v>
+        <v>0.1698845909614128</v>
       </c>
       <c r="D79">
-        <v>0.1578996414910474</v>
+        <v>0.05963369028491894</v>
       </c>
       <c r="E79">
-        <v>0.1690007289340676</v>
+        <v>-0.1443375701394668</v>
       </c>
       <c r="F79">
-        <v>0.1269806197250077</v>
+        <v>0.01304175658060634</v>
       </c>
       <c r="G79">
-        <v>0.1372941559145587</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2223958963773881</v>
+      </c>
+      <c r="H79">
+        <v>0.01946035587119861</v>
+      </c>
+      <c r="I79">
+        <v>0.08480828830213893</v>
+      </c>
+      <c r="J79">
+        <v>0.02862001725582091</v>
+      </c>
+      <c r="K79">
+        <v>-0.05877489733058423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.008617163282105753</v>
+        <v>-0.01849563381953726</v>
       </c>
       <c r="C80">
-        <v>-0.06702740737416532</v>
+        <v>0.06071238511216921</v>
       </c>
       <c r="D80">
-        <v>0.03534682335804152</v>
+        <v>0.0402395275071477</v>
       </c>
       <c r="E80">
-        <v>0.006708531928635636</v>
+        <v>0.01133628623237371</v>
       </c>
       <c r="F80">
-        <v>0.005729661762597599</v>
+        <v>-0.05116739588813816</v>
       </c>
       <c r="G80">
-        <v>-0.009853930642983667</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.03856654061380523</v>
+      </c>
+      <c r="H80">
+        <v>-0.04019947743436415</v>
+      </c>
+      <c r="I80">
+        <v>0.05546891576212604</v>
+      </c>
+      <c r="J80">
+        <v>-0.07870496952081041</v>
+      </c>
+      <c r="K80">
+        <v>-0.0519950970929474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.02002427158111432</v>
+        <v>-0.01772742288150597</v>
       </c>
       <c r="C81">
-        <v>-0.1085936944423895</v>
+        <v>0.1090351326302082</v>
       </c>
       <c r="D81">
-        <v>0.1231571547532398</v>
+        <v>0.04082518099124529</v>
       </c>
       <c r="E81">
-        <v>0.1406422897068971</v>
+        <v>-0.09129157764460676</v>
       </c>
       <c r="F81">
-        <v>0.03396318730370298</v>
+        <v>0.01157899914949771</v>
       </c>
       <c r="G81">
-        <v>0.04802565519975447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1088241864435843</v>
+      </c>
+      <c r="H81">
+        <v>0.05510532877615141</v>
+      </c>
+      <c r="I81">
+        <v>0.06881179712242236</v>
+      </c>
+      <c r="J81">
+        <v>-0.03297268749733455</v>
+      </c>
+      <c r="K81">
+        <v>-0.1002240967722388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.0410774511040811</v>
+        <v>-0.04605122533450409</v>
       </c>
       <c r="C82">
-        <v>-0.1307525041398734</v>
+        <v>0.1207776688801723</v>
       </c>
       <c r="D82">
-        <v>0.1234508668817501</v>
+        <v>0.06294137957791192</v>
       </c>
       <c r="E82">
-        <v>0.08477038047985144</v>
+        <v>-0.1029305528624387</v>
       </c>
       <c r="F82">
-        <v>-0.002915885308220606</v>
+        <v>0.01182512342796018</v>
       </c>
       <c r="G82">
-        <v>0.01719655325706529</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.07368612071165645</v>
+      </c>
+      <c r="H82">
+        <v>0.01672393285956801</v>
+      </c>
+      <c r="I82">
+        <v>0.01956022323091446</v>
+      </c>
+      <c r="J82">
+        <v>-0.01484480952112779</v>
+      </c>
+      <c r="K82">
+        <v>-0.1184291343492371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.004896925423738479</v>
+        <v>0.0006770832497321916</v>
       </c>
       <c r="C83">
-        <v>-0.04469381160614576</v>
+        <v>0.0023757567642356</v>
       </c>
       <c r="D83">
-        <v>-0.2152056861046192</v>
+        <v>-0.0589729381334951</v>
       </c>
       <c r="E83">
-        <v>0.07888325618073352</v>
+        <v>-0.04775660472347001</v>
       </c>
       <c r="F83">
-        <v>0.8209325413595377</v>
+        <v>-0.9516395318836193</v>
       </c>
       <c r="G83">
-        <v>-0.3679509806211025</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.1359751867008644</v>
+      </c>
+      <c r="H83">
+        <v>-0.0929157234384783</v>
+      </c>
+      <c r="I83">
+        <v>-0.03188141480395041</v>
+      </c>
+      <c r="J83">
+        <v>-0.03367876616857868</v>
+      </c>
+      <c r="K83">
+        <v>-0.0782185917624451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.0008931197454765883</v>
+        <v>0.0002146638564199045</v>
       </c>
       <c r="C84">
-        <v>-0.04005475575687516</v>
+        <v>0.03875449704377215</v>
       </c>
       <c r="D84">
-        <v>-0.01402088028150012</v>
+        <v>0.0568121982784222</v>
       </c>
       <c r="E84">
-        <v>-0.09186294512902542</v>
+        <v>0.08355877493972157</v>
       </c>
       <c r="F84">
-        <v>-0.02340363744336565</v>
+        <v>0.01937040917880191</v>
       </c>
       <c r="G84">
-        <v>0.1129238497743714</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03768618492381904</v>
+      </c>
+      <c r="H84">
+        <v>0.08042833692444216</v>
+      </c>
+      <c r="I84">
+        <v>-0.0699664375245911</v>
+      </c>
+      <c r="J84">
+        <v>-0.06867840850800341</v>
+      </c>
+      <c r="K84">
+        <v>-0.0435963400392327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.03644230407119843</v>
+        <v>-0.03072398745348677</v>
       </c>
       <c r="C85">
-        <v>-0.1588671378216391</v>
+        <v>0.1320049266845071</v>
       </c>
       <c r="D85">
-        <v>0.1473377822555106</v>
+        <v>0.06798411200645137</v>
       </c>
       <c r="E85">
-        <v>0.1615565561560973</v>
+        <v>-0.1692293423635767</v>
       </c>
       <c r="F85">
-        <v>0.08500969730795285</v>
+        <v>0.02808278523567122</v>
       </c>
       <c r="G85">
-        <v>0.1260750392689511</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1593589446143358</v>
+      </c>
+      <c r="H85">
+        <v>-0.01258312798375761</v>
+      </c>
+      <c r="I85">
+        <v>0.08338794955835144</v>
+      </c>
+      <c r="J85">
+        <v>-0.05486090200482654</v>
+      </c>
+      <c r="K85">
+        <v>-0.1563446622444878</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.04054932491657764</v>
+        <v>-0.01882290155499845</v>
       </c>
       <c r="C86">
-        <v>-0.05286229769531352</v>
+        <v>0.07257549725842492</v>
       </c>
       <c r="D86">
-        <v>-0.05222349043032975</v>
+        <v>0.01913950425204433</v>
       </c>
       <c r="E86">
-        <v>-0.0310893071705581</v>
+        <v>0.04847481651332087</v>
       </c>
       <c r="F86">
-        <v>-0.04514820551497457</v>
+        <v>-0.008930992469469521</v>
       </c>
       <c r="G86">
-        <v>-0.0372418000492389</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07148689534441316</v>
+      </c>
+      <c r="H86">
+        <v>0.08356699500071796</v>
+      </c>
+      <c r="I86">
+        <v>0.1123812544247202</v>
+      </c>
+      <c r="J86">
+        <v>0.186496811746599</v>
+      </c>
+      <c r="K86">
+        <v>0.005409213793348255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.04269633043034395</v>
+        <v>-0.02084241706748057</v>
       </c>
       <c r="C87">
-        <v>-0.1465959775812798</v>
+        <v>0.1293084914103718</v>
       </c>
       <c r="D87">
-        <v>-0.05412964061970766</v>
+        <v>0.003436861153636883</v>
       </c>
       <c r="E87">
-        <v>-0.09574727482170284</v>
+        <v>0.07954481251140583</v>
       </c>
       <c r="F87">
-        <v>-0.003373659579323525</v>
+        <v>-0.003300399615241297</v>
       </c>
       <c r="G87">
-        <v>-0.02419318322404316</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.006118863258534205</v>
+      </c>
+      <c r="H87">
+        <v>0.01915927753341235</v>
+      </c>
+      <c r="I87">
+        <v>-0.1321534124382346</v>
+      </c>
+      <c r="J87">
+        <v>0.06240321824586892</v>
+      </c>
+      <c r="K87">
+        <v>-0.06425952884761642</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.01410128074322856</v>
+        <v>-0.03728985523595343</v>
       </c>
       <c r="C88">
-        <v>-0.06213026157287351</v>
+        <v>0.07903737272064468</v>
       </c>
       <c r="D88">
-        <v>0.06975751445827678</v>
+        <v>0.0366106365507286</v>
       </c>
       <c r="E88">
-        <v>0.02472727338006608</v>
+        <v>-0.01385869537341966</v>
       </c>
       <c r="F88">
-        <v>-0.03373564804500135</v>
+        <v>0.01571789535529517</v>
       </c>
       <c r="G88">
-        <v>0.004428055463979183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02486823689140499</v>
+      </c>
+      <c r="H88">
+        <v>-0.003753740202333747</v>
+      </c>
+      <c r="I88">
+        <v>0.02837280444299306</v>
+      </c>
+      <c r="J88">
+        <v>-0.0862524675489528</v>
+      </c>
+      <c r="K88">
+        <v>-0.08821419801095862</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3939748122240003</v>
+        <v>-0.3926452052437149</v>
       </c>
       <c r="C89">
-        <v>0.08066884370708663</v>
+        <v>-0.1010980593373049</v>
       </c>
       <c r="D89">
-        <v>0.08468017058778431</v>
+        <v>-0.01570614827928916</v>
       </c>
       <c r="E89">
-        <v>-0.1340915220863506</v>
+        <v>0.07114398680546684</v>
       </c>
       <c r="F89">
-        <v>0.08357857316961737</v>
+        <v>0.01683475727586003</v>
       </c>
       <c r="G89">
-        <v>0.03074563513763555</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02905979125851998</v>
+      </c>
+      <c r="H89">
+        <v>-0.01039220024117919</v>
+      </c>
+      <c r="I89">
+        <v>-0.75196761116488</v>
+      </c>
+      <c r="J89">
+        <v>-0.164511266405197</v>
+      </c>
+      <c r="K89">
+        <v>-0.06671781347308654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.2963094231874409</v>
+        <v>-0.3117701473953442</v>
       </c>
       <c r="C90">
-        <v>0.05031697901567715</v>
+        <v>-0.07154553400447197</v>
       </c>
       <c r="D90">
-        <v>-0.0411811935531328</v>
+        <v>-0.006422577191340258</v>
       </c>
       <c r="E90">
-        <v>-0.01992382693594891</v>
+        <v>0.03277100749600872</v>
       </c>
       <c r="F90">
-        <v>0.03430268555139928</v>
+        <v>-0.01599156263886915</v>
       </c>
       <c r="G90">
-        <v>-0.01074804509777394</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.006157474098173094</v>
+      </c>
+      <c r="H90">
+        <v>0.0009409736059389594</v>
+      </c>
+      <c r="I90">
+        <v>0.1276499759738299</v>
+      </c>
+      <c r="J90">
+        <v>0.009693316966557007</v>
+      </c>
+      <c r="K90">
+        <v>0.01229734222885427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.04227973385528827</v>
+        <v>-0.05213737142925322</v>
       </c>
       <c r="C91">
-        <v>-0.1253311894012411</v>
+        <v>0.1093630678975566</v>
       </c>
       <c r="D91">
-        <v>0.08129108616067031</v>
+        <v>0.0338352483005176</v>
       </c>
       <c r="E91">
-        <v>0.09719543871765539</v>
+        <v>-0.08658704075690546</v>
       </c>
       <c r="F91">
-        <v>0.04286083931940991</v>
+        <v>-0.01937354355016895</v>
       </c>
       <c r="G91">
-        <v>0.05439453376432068</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.08506583803122113</v>
+      </c>
+      <c r="H91">
+        <v>-0.01086664946830116</v>
+      </c>
+      <c r="I91">
+        <v>0.01178476526503926</v>
+      </c>
+      <c r="J91">
+        <v>-0.04856106286988338</v>
+      </c>
+      <c r="K91">
+        <v>-0.05265621588217723</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3722631015190926</v>
+        <v>-0.352586999716557</v>
       </c>
       <c r="C92">
-        <v>0.1208477281940578</v>
+        <v>-0.1294191529867524</v>
       </c>
       <c r="D92">
-        <v>-0.04026167714848843</v>
+        <v>-0.04162128139006492</v>
       </c>
       <c r="E92">
-        <v>-0.04579579502826049</v>
+        <v>0.08414512437960997</v>
       </c>
       <c r="F92">
-        <v>-0.08554289174642545</v>
+        <v>0.03906671397800228</v>
       </c>
       <c r="G92">
-        <v>0.08464287914856228</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0221506491861518</v>
+      </c>
+      <c r="H92">
+        <v>0.07855834218107199</v>
+      </c>
+      <c r="I92">
+        <v>0.1672282439638769</v>
+      </c>
+      <c r="J92">
+        <v>0.02439637620455814</v>
+      </c>
+      <c r="K92">
+        <v>0.06114750582310304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3257949404145355</v>
+        <v>-0.3189858516575254</v>
       </c>
       <c r="C93">
-        <v>0.09744663117207164</v>
+        <v>-0.1186842572382074</v>
       </c>
       <c r="D93">
-        <v>0.02009004911329748</v>
+        <v>0.003629297424794122</v>
       </c>
       <c r="E93">
-        <v>0.001427648351909747</v>
+        <v>0.004933359932493725</v>
       </c>
       <c r="F93">
-        <v>0.01786634969867413</v>
+        <v>-0.004338870908243845</v>
       </c>
       <c r="G93">
-        <v>-0.008977718817577722</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04207763784077332</v>
+      </c>
+      <c r="H93">
+        <v>0.05426748679453344</v>
+      </c>
+      <c r="I93">
+        <v>0.1263351955635506</v>
+      </c>
+      <c r="J93">
+        <v>0.05150145827472841</v>
+      </c>
+      <c r="K93">
+        <v>-0.02931749020612341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.07957895986616258</v>
+        <v>-0.0762794098388274</v>
       </c>
       <c r="C94">
-        <v>-0.2096772986819938</v>
+        <v>0.1807613739681949</v>
       </c>
       <c r="D94">
-        <v>0.2190594300671751</v>
+        <v>0.08617097384602013</v>
       </c>
       <c r="E94">
-        <v>0.2391214436436723</v>
+        <v>-0.2656511237287886</v>
       </c>
       <c r="F94">
-        <v>0.1366399420769034</v>
+        <v>0.06285291417251138</v>
       </c>
       <c r="G94">
-        <v>0.2200620230590512</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.4376948928907343</v>
+      </c>
+      <c r="H94">
+        <v>-0.1428298341338587</v>
+      </c>
+      <c r="I94">
+        <v>-0.09698082212521754</v>
+      </c>
+      <c r="J94">
+        <v>-0.2609014814016202</v>
+      </c>
+      <c r="K94">
+        <v>0.5876753863303242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02910845446118781</v>
+        <v>-0.03866340688469366</v>
       </c>
       <c r="C95">
-        <v>-0.06550416071991083</v>
+        <v>0.1130978440593473</v>
       </c>
       <c r="D95">
-        <v>0.04051455055736599</v>
+        <v>0.03316092020584197</v>
       </c>
       <c r="E95">
-        <v>0.01425016018248856</v>
+        <v>-0.01875140189081393</v>
       </c>
       <c r="F95">
-        <v>-0.07320921526413335</v>
+        <v>0.04467580284514792</v>
       </c>
       <c r="G95">
-        <v>-0.1511023195203231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1308545220952107</v>
+      </c>
+      <c r="H95">
+        <v>0.05563874203047241</v>
+      </c>
+      <c r="I95">
+        <v>-0.05864791731676543</v>
+      </c>
+      <c r="J95">
+        <v>-0.1961809458603859</v>
+      </c>
+      <c r="K95">
+        <v>-0.2920814092605183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.01021985569420667</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.01728676950334611</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01812876931615026</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.02432672095547479</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.03273057172453514</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.04304430541293857</v>
+      </c>
+      <c r="H97">
+        <v>0.003185316548717755</v>
+      </c>
+      <c r="I97">
+        <v>-0.02234853157550668</v>
+      </c>
+      <c r="J97">
+        <v>0.01203560106457505</v>
+      </c>
+      <c r="K97">
+        <v>-0.0007554630207663508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08746767999846847</v>
+        <v>-0.1329327913489619</v>
       </c>
       <c r="C98">
-        <v>-0.151818713892537</v>
+        <v>0.1599074032516689</v>
       </c>
       <c r="D98">
-        <v>0.06358755722741935</v>
+        <v>0.07358841469540356</v>
       </c>
       <c r="E98">
-        <v>-0.02769636633153769</v>
+        <v>-0.1441753259695754</v>
       </c>
       <c r="F98">
-        <v>-0.1338298278611781</v>
+        <v>-0.01966687915494523</v>
       </c>
       <c r="G98">
-        <v>-0.2839664916568992</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3405551516431189</v>
+      </c>
+      <c r="H98">
+        <v>-0.3505965389278602</v>
+      </c>
+      <c r="I98">
+        <v>0.05770609815265403</v>
+      </c>
+      <c r="J98">
+        <v>0.1306442890477088</v>
+      </c>
+      <c r="K98">
+        <v>0.1775972707991087</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.003704984261360302</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.01173354254613933</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.005286335507498596</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.01237297736364867</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.01346048314857904</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.003935803470347583</v>
+      </c>
+      <c r="H99">
+        <v>0.05774407528027525</v>
+      </c>
+      <c r="I99">
+        <v>0.004726034815592209</v>
+      </c>
+      <c r="J99">
+        <v>0.03271976102292794</v>
+      </c>
+      <c r="K99">
+        <v>0.1106690509833235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01341798841666351</v>
+        <v>-0.01210256472295808</v>
       </c>
       <c r="C101">
-        <v>-0.057502436175833</v>
+        <v>0.07647067071392152</v>
       </c>
       <c r="D101">
-        <v>-0.01760834921430655</v>
+        <v>0.03637703292427892</v>
       </c>
       <c r="E101">
-        <v>-0.1052228418659737</v>
+        <v>0.06372369823565378</v>
       </c>
       <c r="F101">
-        <v>-0.03309242563928464</v>
+        <v>-0.06577631565359573</v>
       </c>
       <c r="G101">
-        <v>-0.1077240805553334</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1594813465260606</v>
+      </c>
+      <c r="H101">
+        <v>0.2820690731339724</v>
+      </c>
+      <c r="I101">
+        <v>-0.01886368796594385</v>
+      </c>
+      <c r="J101">
+        <v>-0.1885028050005536</v>
+      </c>
+      <c r="K101">
+        <v>0.2755414342834298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.01741909554436732</v>
+        <v>-0.006338061576925807</v>
       </c>
       <c r="C102">
-        <v>-0.0693645666822348</v>
+        <v>0.03232368286709477</v>
       </c>
       <c r="D102">
-        <v>0.04311795874973364</v>
+        <v>0.008278289792936133</v>
       </c>
       <c r="E102">
-        <v>0.05157402111968485</v>
+        <v>-0.03177230073446006</v>
       </c>
       <c r="F102">
-        <v>0.02747911844264737</v>
+        <v>-0.004801290084258583</v>
       </c>
       <c r="G102">
-        <v>0.009044353455118564</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03748386893328889</v>
+      </c>
+      <c r="H102">
+        <v>0.009352233381868774</v>
+      </c>
+      <c r="I102">
+        <v>-0.0209438425334278</v>
+      </c>
+      <c r="J102">
+        <v>0.005738983345986948</v>
+      </c>
+      <c r="K102">
+        <v>0.01480346559187334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
